--- a/_data/YinshunSamyuktaAgama_PaliParallels.xlsx
+++ b/_data/YinshunSamyuktaAgama_PaliParallels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Desktop\DharmaPearls\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C850FAFF-A803-4B94-81E7-99234A3E5594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC67208-4F49-4884-A050-D50B1869E105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="15030" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11393,7 +11393,7 @@
   <dimension ref="A1:L2457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A2409" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2407" sqref="C2407"/>
     </sheetView>
   </sheetViews>

--- a/_data/YinshunSamyuktaAgama_PaliParallels.xlsx
+++ b/_data/YinshunSamyuktaAgama_PaliParallels.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Desktop\DharmaPearls\_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Desktop\The Four Agamas\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C240C800-76F1-462D-B4B4-18DE4085BB11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70635CE-C4B7-46E0-9753-250AA086301A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1170" windowWidth="20640" windowHeight="15030" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Madhyama" sheetId="1" r:id="rId1"/>
@@ -9355,12 +9355,6 @@
     <t>∅</t>
   </si>
   <si>
-    <t>SN 22.13</t>
-  </si>
-  <si>
-    <t>SN 22.14</t>
-  </si>
-  <si>
     <t>SN 22.24</t>
   </si>
   <si>
@@ -9557,6 +9551,12 @@
   </si>
   <si>
     <t>MN 62, 118</t>
+  </si>
+  <si>
+    <t>SN 22.14, (22.51)</t>
+  </si>
+  <si>
+    <t>SN 22.13, (22.51)</t>
   </si>
 </sst>
 </file>
@@ -11377,7 +11377,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2342" sqref="G2342"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11466,13 +11466,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="D3" s="7">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>3166</v>
+        <v>3164</v>
       </c>
       <c r="F3" t="s">
         <v>3105</v>
@@ -11492,13 +11492,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>3106</v>
+        <v>3173</v>
       </c>
       <c r="F4" t="s">
         <v>3105</v>
@@ -11518,7 +11518,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
@@ -11544,13 +11544,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>3107</v>
+        <v>3172</v>
       </c>
       <c r="F6" t="s">
         <v>3105</v>
@@ -11570,7 +11570,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="D7" s="7">
         <v>1</v>
@@ -11596,13 +11596,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
       <c r="F8" t="s">
         <v>3105</v>
@@ -11622,13 +11622,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
       <c r="F9" t="s">
         <v>3105</v>
@@ -11648,13 +11648,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
       <c r="F10" t="s">
         <v>3105</v>
@@ -11666,7 +11666,7 @@
         <v>3105</v>
       </c>
       <c r="I10" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -11677,13 +11677,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
       <c r="F11" t="s">
         <v>3105</v>
@@ -11703,13 +11703,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
       <c r="F12" t="s">
         <v>3105</v>
@@ -11721,7 +11721,7 @@
         <v>3105</v>
       </c>
       <c r="I12" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -11732,13 +11732,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>3129</v>
+        <v>3127</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="F13" t="s">
         <v>3105</v>
@@ -11750,7 +11750,7 @@
         <v>3105</v>
       </c>
       <c r="I13" t="s">
-        <v>3120</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -11761,13 +11761,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>3130</v>
+        <v>3128</v>
       </c>
       <c r="D14" s="7">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
       <c r="F14" t="s">
         <v>3105</v>
@@ -11787,7 +11787,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>3131</v>
+        <v>3129</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
@@ -11813,13 +11813,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>3132</v>
+        <v>3130</v>
       </c>
       <c r="D16" s="7">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="F16" t="s">
         <v>3105</v>
@@ -11839,19 +11839,19 @@
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>3133</v>
+        <v>3131</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="F17" t="s">
         <v>3105</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>3105</v>
@@ -11865,19 +11865,19 @@
         <v>10</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>3134</v>
+        <v>3132</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="F18" t="s">
         <v>3105</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>3105</v>
@@ -11891,13 +11891,13 @@
         <v>11</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>3135</v>
+        <v>3133</v>
       </c>
       <c r="D19" s="7">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="F19" t="s">
         <v>3105</v>
@@ -11917,13 +11917,13 @@
         <v>12</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="D20" s="7">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="F20" t="s">
         <v>3105</v>
@@ -11943,7 +11943,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>3137</v>
+        <v>3135</v>
       </c>
       <c r="D21" s="7">
         <v>1</v>
@@ -11969,13 +11969,13 @@
         <v>14</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>3138</v>
+        <v>3136</v>
       </c>
       <c r="D22" s="7">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
       <c r="F22" t="s">
         <v>3105</v>
@@ -11995,13 +11995,13 @@
         <v>15</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>3139</v>
+        <v>3137</v>
       </c>
       <c r="D23" s="7">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
       <c r="F23" t="s">
         <v>3105</v>
@@ -12021,13 +12021,13 @@
         <v>16</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>3140</v>
+        <v>3138</v>
       </c>
       <c r="D24" s="7">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
       <c r="F24" t="s">
         <v>3105</v>
@@ -12047,7 +12047,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>3141</v>
+        <v>3139</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>
@@ -12073,7 +12073,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="D26" s="7">
         <v>1</v>
@@ -12099,7 +12099,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>3144</v>
+        <v>3142</v>
       </c>
       <c r="D27" s="7">
         <v>1</v>
@@ -12125,13 +12125,13 @@
         <v>20</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>3145</v>
+        <v>3143</v>
       </c>
       <c r="D28" s="7">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>3147</v>
+        <v>3145</v>
       </c>
       <c r="F28" t="s">
         <v>3105</v>
@@ -12151,7 +12151,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>3146</v>
+        <v>3144</v>
       </c>
       <c r="D29" s="7">
         <v>1</v>
@@ -12177,7 +12177,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="D30" s="7">
         <v>1</v>
@@ -12203,13 +12203,13 @@
         <v>23</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>3143</v>
+        <v>3141</v>
       </c>
       <c r="D31" s="7">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>3152</v>
+        <v>3150</v>
       </c>
       <c r="F31" t="s">
         <v>3105</v>
@@ -12221,7 +12221,7 @@
         <v>3105</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>3150</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -12232,13 +12232,13 @@
         <v>24</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>3149</v>
+        <v>3147</v>
       </c>
       <c r="D32" s="7">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>3152</v>
+        <v>3150</v>
       </c>
       <c r="F32" t="s">
         <v>3105</v>
@@ -12250,7 +12250,7 @@
         <v>3105</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>3151</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -12261,13 +12261,13 @@
         <v>25</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>3153</v>
+        <v>3151</v>
       </c>
       <c r="D33" s="7">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>3154</v>
+        <v>3152</v>
       </c>
       <c r="F33" t="s">
         <v>3105</v>
@@ -12287,13 +12287,13 @@
         <v>26</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>3155</v>
+        <v>3153</v>
       </c>
       <c r="D34" s="7">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>3156</v>
+        <v>3154</v>
       </c>
       <c r="F34" t="s">
         <v>3105</v>
@@ -12313,13 +12313,13 @@
         <v>27</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>3158</v>
+        <v>3156</v>
       </c>
       <c r="D35" s="7">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>3157</v>
+        <v>3155</v>
       </c>
       <c r="F35" t="s">
         <v>3105</v>
@@ -12339,13 +12339,13 @@
         <v>28</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>3160</v>
+        <v>3158</v>
       </c>
       <c r="D36" s="7">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>3159</v>
+        <v>3157</v>
       </c>
       <c r="F36" t="s">
         <v>3105</v>
@@ -12365,13 +12365,13 @@
         <v>29</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="D37" s="7">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>3156</v>
+        <v>3154</v>
       </c>
       <c r="F37" t="s">
         <v>3105</v>
@@ -12391,7 +12391,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>3163</v>
+        <v>3161</v>
       </c>
       <c r="D38" s="7">
         <v>1</v>
@@ -12417,7 +12417,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>3164</v>
+        <v>3162</v>
       </c>
       <c r="D39" s="7">
         <v>1</v>
@@ -12443,13 +12443,13 @@
         <v>32</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="D40" s="7">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="F40" t="s">
         <v>3105</v>
@@ -15273,7 +15273,7 @@
         <v>8</v>
       </c>
       <c r="E220" t="s">
-        <v>3168</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -15290,7 +15290,7 @@
         <v>8</v>
       </c>
       <c r="E221" t="s">
-        <v>3169</v>
+        <v>3167</v>
       </c>
       <c r="I221" s="9" t="s">
         <v>432</v>
@@ -15415,7 +15415,7 @@
         <v>8</v>
       </c>
       <c r="E229" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="I229" s="9" t="s">
         <v>433</v>
@@ -16281,7 +16281,7 @@
         <v>8</v>
       </c>
       <c r="E287" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -17969,7 +17969,7 @@
         <v>11</v>
       </c>
       <c r="E399" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
@@ -28712,7 +28712,7 @@
         <v>244</v>
       </c>
       <c r="G1086" s="5" t="s">
-        <v>3173</v>
+        <v>3171</v>
       </c>
       <c r="J1086" t="s">
         <v>247</v>
@@ -40400,7 +40400,7 @@
         <v>7</v>
       </c>
       <c r="E1856" t="s">
-        <v>3167</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="1857" spans="1:5" x14ac:dyDescent="0.25">

--- a/_data/YinshunSamyuktaAgama_PaliParallels.xlsx
+++ b/_data/YinshunSamyuktaAgama_PaliParallels.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Desktop\The Four Agamas\_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Desktop\DharmaPearls\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70635CE-C4B7-46E0-9753-250AA086301A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAF4BDA-7B69-4669-8879-5A71AA84ADE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1170" windowWidth="20640" windowHeight="15030" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Madhyama" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3569" uniqueCount="3174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3586" uniqueCount="3196">
   <si>
     <t>善法經</t>
   </si>
@@ -9557,6 +9557,72 @@
   </si>
   <si>
     <t>SN 22.13, (22.51)</t>
+  </si>
+  <si>
+    <t>SN 22.52</t>
+  </si>
+  <si>
+    <t>(SA 2.5)</t>
+  </si>
+  <si>
+    <t>(SA 2.1)</t>
+  </si>
+  <si>
+    <t>(SA 2.2)</t>
+  </si>
+  <si>
+    <t>(SA 2.3)</t>
+  </si>
+  <si>
+    <t>(SA 2.4)</t>
+  </si>
+  <si>
+    <t>(SN 22.51)</t>
+  </si>
+  <si>
+    <t>(SA 2.6)</t>
+  </si>
+  <si>
+    <t>(SA 2.7)</t>
+  </si>
+  <si>
+    <t>(SN 22.24)</t>
+  </si>
+  <si>
+    <t>(SA 2.8)</t>
+  </si>
+  <si>
+    <t>(SA 2.9)</t>
+  </si>
+  <si>
+    <t>(SA 2.10)</t>
+  </si>
+  <si>
+    <t>(SA 1.1)</t>
+  </si>
+  <si>
+    <t>(SA 1.2)</t>
+  </si>
+  <si>
+    <t>(SA 1.3)</t>
+  </si>
+  <si>
+    <t>(SA 1.4)</t>
+  </si>
+  <si>
+    <t>(SA 1.5)</t>
+  </si>
+  <si>
+    <t>(SA 1.6)</t>
+  </si>
+  <si>
+    <t>(SA 1.7)</t>
+  </si>
+  <si>
+    <t>(SA 1.8)</t>
+  </si>
+  <si>
+    <t>(SA 1.9)</t>
   </si>
 </sst>
 </file>
@@ -9631,7 +9697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -9652,6 +9718,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11377,7 +11444,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11395,12 +11462,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="3" t="s">
         <v>49</v>
       </c>
@@ -11413,12 +11480,12 @@
       <c r="H1" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="13"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -11483,6 +11550,9 @@
       <c r="H3" s="2" t="s">
         <v>3105</v>
       </c>
+      <c r="I3" s="10" t="s">
+        <v>3176</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
@@ -11509,6 +11579,9 @@
       <c r="H4" s="2" t="s">
         <v>3105</v>
       </c>
+      <c r="I4" s="10" t="s">
+        <v>3177</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
@@ -11524,7 +11597,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>3105</v>
+        <v>3180</v>
       </c>
       <c r="F5" t="s">
         <v>3105</v>
@@ -11534,6 +11607,9 @@
       </c>
       <c r="H5" s="2" t="s">
         <v>3105</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>3178</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -11561,6 +11637,9 @@
       <c r="H6" s="2" t="s">
         <v>3105</v>
       </c>
+      <c r="I6" s="10" t="s">
+        <v>3179</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -11576,7 +11655,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>3105</v>
+        <v>3174</v>
       </c>
       <c r="F7" t="s">
         <v>3105</v>
@@ -11586,6 +11665,9 @@
       </c>
       <c r="H7" s="2" t="s">
         <v>3105</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>3175</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -11613,6 +11695,9 @@
       <c r="H8" s="2" t="s">
         <v>3105</v>
       </c>
+      <c r="I8" s="10" t="s">
+        <v>3181</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -11628,7 +11713,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>3106</v>
+        <v>3183</v>
       </c>
       <c r="F9" t="s">
         <v>3105</v>
@@ -11638,6 +11723,9 @@
       </c>
       <c r="H9" s="2" t="s">
         <v>3105</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>3182</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -11654,7 +11742,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>3107</v>
+        <v>3183</v>
       </c>
       <c r="F10" t="s">
         <v>3105</v>
@@ -11665,8 +11753,8 @@
       <c r="H10" s="2" t="s">
         <v>3105</v>
       </c>
-      <c r="I10" t="s">
-        <v>3116</v>
+      <c r="I10" s="10" t="s">
+        <v>3184</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -11683,7 +11771,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>3106</v>
+        <v>3183</v>
       </c>
       <c r="F11" t="s">
         <v>3105</v>
@@ -11693,6 +11781,9 @@
       </c>
       <c r="H11" s="2" t="s">
         <v>3105</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>3185</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -11720,8 +11811,8 @@
       <c r="H12" s="2" t="s">
         <v>3105</v>
       </c>
-      <c r="I12" t="s">
-        <v>3117</v>
+      <c r="I12" s="10" t="s">
+        <v>3186</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -14606,7 +14697,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>175</v>
       </c>
@@ -14626,7 +14717,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>176</v>
       </c>
@@ -14646,7 +14737,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>177</v>
       </c>
@@ -14660,7 +14751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>178</v>
       </c>
@@ -14680,7 +14771,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>179</v>
       </c>
@@ -14696,8 +14787,11 @@
       <c r="E181" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I181" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>180</v>
       </c>
@@ -14710,8 +14804,11 @@
       <c r="D182" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I182" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>181</v>
       </c>
@@ -14724,8 +14821,11 @@
       <c r="D183" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I183" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>182</v>
       </c>
@@ -14738,8 +14838,11 @@
       <c r="D184" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I184" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>183</v>
       </c>
@@ -14755,8 +14858,11 @@
       <c r="E185" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I185" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>184</v>
       </c>
@@ -14773,10 +14879,13 @@
         <v>426</v>
       </c>
       <c r="I186" t="s">
+        <v>3192</v>
+      </c>
+      <c r="J186" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>185</v>
       </c>
@@ -14793,10 +14902,13 @@
         <v>426</v>
       </c>
       <c r="I187" t="s">
+        <v>3193</v>
+      </c>
+      <c r="J187" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>186</v>
       </c>
@@ -14812,8 +14924,11 @@
       <c r="E188" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I188" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>187</v>
       </c>
@@ -14829,8 +14944,11 @@
       <c r="E189" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I189" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>188</v>
       </c>
@@ -14847,7 +14965,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
         <v>189</v>
       </c>
@@ -14864,7 +14982,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
         <v>190</v>
       </c>

--- a/_data/YinshunSamyuktaAgama_PaliParallels.xlsx
+++ b/_data/YinshunSamyuktaAgama_PaliParallels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Desktop\DharmaPearls\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8133E6-5142-47BC-8774-61B15ECA5757}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13E1C01-F19B-43FC-9F15-8C07F98567C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1170" windowWidth="20640" windowHeight="15030" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="20640" windowHeight="15030" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Madhyama" sheetId="1" r:id="rId1"/>
@@ -11440,8 +11440,8 @@
   <dimension ref="A1:L2457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A972" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E994" sqref="E994"/>
+      <pane ySplit="2" topLeftCell="A975" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1026" sqref="F1026"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
